--- a/Tests/projection_test.xlsx
+++ b/Tests/projection_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ti-software\Balancer\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3919C5-626C-4BD2-BB15-39228B4180F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AB74EC-F5D9-4D8C-B7FF-E5C9896FA98C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{974E7DD2-697E-4922-89D7-B2AA457181BD}"/>
   </bookViews>
@@ -258,16 +258,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -279,16 +279,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -572,22 +572,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>-84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>-317</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>-313</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.307692307692307</c:v>
+                  <c:v>-122.12307692307692</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.23076923076923</c:v>
+                  <c:v>-123.97753846153846</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>-84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -602,22 +602,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>-212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80</c:v>
+                  <c:v>-231</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>-238</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78.461538461538467</c:v>
+                  <c:v>-308.21538461538461</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43.846153846153847</c:v>
+                  <c:v>-312.89569230769229</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>-212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2305,7 +2305,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2325,11 +2325,11 @@
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F1">
         <f>(motor0 - zero0)</f>
-        <v>20</v>
+        <v>-84</v>
       </c>
       <c r="G1">
         <f xml:space="preserve"> (motor1 - zero1)</f>
-        <v>30</v>
+        <v>-212</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -2373,51 +2373,51 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D3">
         <f>ball0 - zero0</f>
-        <v>50</v>
+        <v>-317</v>
       </c>
       <c r="E3">
         <f>ball1 - zero1</f>
-        <v>80</v>
+        <v>-231</v>
       </c>
       <c r="F3">
         <f>(motor0 - zero0)</f>
-        <v>20</v>
+        <v>-84</v>
       </c>
       <c r="G3">
         <f xml:space="preserve"> (motor1 - zero1)</f>
-        <v>30</v>
+        <v>-212</v>
       </c>
       <c r="H3">
         <f xml:space="preserve"> set_point0 - zero0</f>
-        <v>50</v>
+        <v>-313</v>
       </c>
       <c r="I3">
         <f>set_point1 - zero1</f>
-        <v>30</v>
+        <v>-238</v>
       </c>
       <c r="J3">
         <f>((D3*F3)+(E3*G3))/(POWER(F3,2)+POWER(G3,2))</f>
-        <v>2.6153846153846154</v>
+        <v>1.4538461538461538</v>
       </c>
       <c r="K3">
         <f>J3*F3</f>
-        <v>52.307692307692307</v>
+        <v>-122.12307692307692</v>
       </c>
       <c r="L3">
         <f>J3*G3</f>
-        <v>78.461538461538467</v>
+        <v>-308.21538461538461</v>
       </c>
       <c r="M3">
         <f>(H3*F3+I3*G3)/((POWER(F3,2) + POWER(G3,2)))</f>
-        <v>1.4615384615384615</v>
+        <v>1.4759230769230769</v>
       </c>
       <c r="N3">
         <f>M3*F3</f>
-        <v>29.23076923076923</v>
+        <v>-123.97753846153846</v>
       </c>
       <c r="O3">
         <f>M3*G3</f>
-        <v>43.846153846153847</v>
+        <v>-312.89569230769229</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -2425,7 +2425,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -2433,7 +2433,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -2441,7 +2441,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -2449,7 +2449,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -2457,7 +2457,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -2465,14 +2465,14 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
         <f xml:space="preserve"> SQRT( POWER(( F3 - N3),2) + POWER((G3-O3),2))</f>
-        <v>16.641005886756872</v>
+        <v>108.52715930905177</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -2480,14 +2480,14 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <v>-16</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
         <f xml:space="preserve"> SQRT( POWER(( F3 - K3),2) + POWER((G3-L3),2))</f>
-        <v>58.24352060364906</v>
+        <v>103.49284627822945</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -2495,14 +2495,14 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11">
         <f>E9-E10</f>
-        <v>-41.602514716892188</v>
+        <v>5.0343130308223181</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -2511,11 +2511,11 @@
       </c>
       <c r="B16">
         <f>zero0</f>
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="C16">
         <f>zero1</f>
-        <v>20</v>
+        <v>242</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2530,19 +2530,19 @@
       </c>
       <c r="B17">
         <f>motor0</f>
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="C17">
         <f>motor1</f>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D17">
         <f>F3</f>
-        <v>20</v>
+        <v>-84</v>
       </c>
       <c r="E17">
         <f>G3</f>
-        <v>30</v>
+        <v>-212</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2551,19 +2551,19 @@
       </c>
       <c r="B18">
         <f>ball0</f>
-        <v>70</v>
+        <v>-20</v>
       </c>
       <c r="C18">
         <f>ball1</f>
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D18">
         <f>D3</f>
-        <v>50</v>
+        <v>-317</v>
       </c>
       <c r="E18">
         <f>E3</f>
-        <v>80</v>
+        <v>-231</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2572,49 +2572,49 @@
       </c>
       <c r="B19">
         <f>set_point0</f>
-        <v>70</v>
+        <v>-16</v>
       </c>
       <c r="C19">
         <f>set_point1</f>
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <f>H3</f>
-        <v>50</v>
+        <v>-313</v>
       </c>
       <c r="E19">
         <f>I3</f>
-        <v>30</v>
+        <v>-238</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D20">
         <f>K3</f>
-        <v>52.307692307692307</v>
+        <v>-122.12307692307692</v>
       </c>
       <c r="E20">
         <f>L3</f>
-        <v>78.461538461538467</v>
+        <v>-308.21538461538461</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D21">
         <f>N3</f>
-        <v>29.23076923076923</v>
+        <v>-123.97753846153846</v>
       </c>
       <c r="E21">
         <f>O3</f>
-        <v>43.846153846153847</v>
+        <v>-312.89569230769229</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D22">
         <f>F1</f>
-        <v>20</v>
+        <v>-84</v>
       </c>
       <c r="E22">
         <f>G1</f>
-        <v>30</v>
+        <v>-212</v>
       </c>
     </row>
   </sheetData>
